--- a/biology/Origine et évolution du vivant/Darwin_et_la_Science_de_l’évolution/Darwin_et_la_Science_de_l’évolution.xlsx
+++ b/biology/Origine et évolution du vivant/Darwin_et_la_Science_de_l’évolution/Darwin_et_la_Science_de_l’évolution.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Darwin_et_la_Science_de_l%E2%80%99%C3%A9volution</t>
+          <t>Darwin_et_la_Science_de_l’évolution</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Darwin et la Science de l’évolution est une monographie illustrée et un récit biographique sur le naturaliste anglais Charles Darwin et sa théorie de l’évolution, écrit par l’historien des sciences Patrick Tort, et paru chez Gallimard en 2000. Cet ouvrage est le 397e titre dans la collection « Découvertes Gallimard »[1], et a été adapté en un film documentaire homonyme[2].
+Darwin et la Science de l’évolution est une monographie illustrée et un récit biographique sur le naturaliste anglais Charles Darwin et sa théorie de l’évolution, écrit par l’historien des sciences Patrick Tort, et paru chez Gallimard en 2000. Cet ouvrage est le 397e titre dans la collection « Découvertes Gallimard », et a été adapté en un film documentaire homonyme.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Darwin_et_la_Science_de_l%E2%80%99%C3%A9volution</t>
+          <t>Darwin_et_la_Science_de_l’évolution</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Introduction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet ouvrage en format poche (125 × 178 mm) fait partie de la série Sciences et techniques (anciennement appartenant à la série Sciences) dans la collection « Découvertes Gallimard ». Ici l’auteur éclaire la vie et l’œuvre du principal fondateur de la science de l’évolution. À la fois biographie, histoire de la science et documentaire social, ce livre emmène les lecteurs dans les voyages de découverte de Darwin.
-Selon la tradition des « Découvertes », cette collection repose sur une abondante documentation iconographique et une manière de faire dialoguer l’iconographie documentaire et le texte, enrichie par une impression sur papier couché ; en d’autres termes, « de véritables monographies, éditées comme des livres d’art »[3]. C’est presque comme un « roman graphique », rempli de planches en couleurs.
+Selon la tradition des « Découvertes », cette collection repose sur une abondante documentation iconographique et une manière de faire dialoguer l’iconographie documentaire et le texte, enrichie par une impression sur papier couché ; en d’autres termes, « de véritables monographies, éditées comme des livres d’art ». C’est presque comme un « roman graphique », rempli de planches en couleurs.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Darwin_et_la_Science_de_l%E2%80%99%C3%A9volution</t>
+          <t>Darwin_et_la_Science_de_l’évolution</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site Babelio confère au livre une note moyenne de 3,50 sur 5, sur la base de 6 notes[4]. Sur le site Goodreads, le livre obtient une moyenne de 3,48/5 basée sur 21 notes[5], indiquant des avis généralement positifs.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site Babelio confère au livre une note moyenne de 3,50 sur 5, sur la base de 6 notes. Sur le site Goodreads, le livre obtient une moyenne de 3,48/5 basée sur 21 notes, indiquant des avis généralement positifs.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Darwin_et_la_Science_de_l%E2%80%99%C3%A9volution</t>
+          <t>Darwin_et_la_Science_de_l’évolution</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +591,49 @@
           <t>Adaptation documentaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 2002, en coproduction avec La Sept-Arte et Trans Europe Film, en collaboration avec Éditions Gallimard et CNRS Images média, réalisé l’adaptation de Darwin et la Science de l’évolution, dirigée par Valérie Winckler, et diffusé sur Arte dans la case « L’Aventure humaine »[6].
-Fiche technique
-Titre : Darwin et la Science de l’évolution
-Titre allemand : Charles Darwin und die Evolution[7]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2002, en coproduction avec La Sept-Arte et Trans Europe Film, en collaboration avec Éditions Gallimard et CNRS Images média, réalisé l’adaptation de Darwin et la Science de l’évolution, dirigée par Valérie Winckler, et diffusé sur Arte dans la case « L’Aventure humaine ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Darwin_et_la_Science_de_l’évolution</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Darwin_et_la_Science_de_l%E2%80%99%C3%A9volution</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Adaptation documentaire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Titre : Darwin et la Science de l’évolution
+Titre allemand : Charles Darwin und die Evolution
 Réalisation : Valérie Winckler
 Conseiller scientifique : Patrick Tort
 Producteur : Jean-Pierre Gibrat
@@ -603,31 +656,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Darwin_et_la_Science_de_l%E2%80%99%C3%A9volution</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Darwin_et_la_Science_de_l’évolution</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Origine et évolution du vivant/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Darwin_et_la_Science_de_l%E2%80%99%C3%A9volution</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Éditions internationales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
